--- a/2025-10-21/21_combined_confidence.xlsx
+++ b/2025-10-21/21_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arsenal FC  - Atlético de Madrid: 20:00</t>
+          <t>Arsenal FC ✓ - Atlético de Madrid: 4:0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,17 +488,21 @@
         <v>74</v>
       </c>
       <c r="E2" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" t="n">
         <v>1.57</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Union Saint-Gilloise - Inter Milan : 20:00</t>
+          <t>Union Saint-Gilloise - Inter Milan ✓: 0:4</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -507,10 +511,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E3" t="n">
         <v>94</v>
@@ -518,7 +522,40 @@
       <c r="F3" t="n">
         <v>1.76</v>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FC Barcelona ✓ - Olympiacos Piraeus: 6:1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FC Barcelona</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>92</v>
+      </c>
+      <c r="E4" t="n">
+        <v>93</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
